--- a/DB/KFZ/RS/RSJOSUAMIKE.xlsx
+++ b/DB/KFZ/RS/RSJOSUAMIKE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muendtrath.mike\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="19200" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,51 +24,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Kunde</t>
   </si>
   <si>
-    <t>KFZ-Mechaniker</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>KundeID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>AutoID</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Kennzeichen</t>
+  </si>
+  <si>
+    <t>Reparatur</t>
+  </si>
+  <si>
+    <t>Diagnose</t>
+  </si>
+  <si>
+    <t>Mechaniker</t>
   </si>
   <si>
     <t>Fachgebiet</t>
   </si>
   <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>FachgebietID</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>MiNr</t>
+  </si>
+  <si>
+    <t>VARCHAR(250)</t>
+  </si>
+  <si>
+    <t>Kilometer</t>
+  </si>
+  <si>
+    <t>AbgelesenAm</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>InT</t>
+  </si>
+  <si>
+    <t>Fk</t>
+  </si>
+  <si>
+    <t>KundenID</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>AuftragsID</t>
   </si>
   <si>
-    <t>MiNr</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>Reparatur</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Diagnose</t>
+    <t>RechnungsID</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
   </si>
   <si>
     <t>Rechnung</t>
   </si>
   <si>
-    <t>Kunden</t>
-  </si>
-  <si>
-    <t>KundenID</t>
+    <t>RechnungID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosten </t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>RechnungsDatum</t>
   </si>
 </sst>
 </file>
@@ -92,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -100,12 +157,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -386,100 +475,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="B3:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
